--- a/public/helloworld.xlsx
+++ b/public/helloworld.xlsx
@@ -15,18 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
-    <t>id</t>
+    <t>Id</t>
   </si>
   <si>
-    <t>Menu Name</t>
+    <t>Customer id</t>
   </si>
   <si>
     <t>Quantity</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>2022-04-27 02:31:01</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -370,7 +373,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,12 +384,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>130.0</v>
+        <v>330.0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/public/helloworld.xlsx
+++ b/public/helloworld.xlsx
@@ -15,21 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>Id</t>
+    <t>Total</t>
   </si>
   <si>
     <t>Customer id</t>
   </si>
   <si>
-    <t>Quantity</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>2022-04-27 02:31:01</t>
+    <t>2022-04-27 17:10:58</t>
   </si>
 </sst>
 </file>
@@ -365,7 +362,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,7 +370,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,18 +381,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>330.0</v>
-      </c>
-      <c r="B2" t="s">
+        <v>150.0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/public/helloworld.xlsx
+++ b/public/helloworld.xlsx
@@ -26,7 +26,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27 17:10:58</t>
+    <t>2022-04-28 09:35:43</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>150.0</v>
+        <v>80.0</v>
       </c>
       <c r="B2">
         <v>1</v>
